--- a/data/trans_orig/CoPsoQ_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ_R-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>60998</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47883</v>
+        <v>47354</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77742</v>
+        <v>76197</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2224606026466056</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1746300295601579</v>
+        <v>0.1727020435874739</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2835288083681703</v>
+        <v>0.2778927885296327</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -767,16 +767,16 @@
         <v>33380</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58336</v>
+        <v>58270</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2077076051247447</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1529271725986079</v>
+        <v>0.1529289916484044</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2672655898967728</v>
+        <v>0.2669638889706136</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>98</v>
@@ -785,19 +785,19 @@
         <v>106334</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88758</v>
+        <v>88936</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>127044</v>
+        <v>126735</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.215921766279902</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1802311211557726</v>
+        <v>0.1805934228439834</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.257974632355666</v>
+        <v>0.2573478530546757</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>213197</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>196453</v>
+        <v>197998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>226312</v>
+        <v>226841</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7775393973533944</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7164711916318297</v>
+        <v>0.7221072114703674</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8253699704398422</v>
+        <v>0.8272979564125263</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>158</v>
@@ -835,7 +835,7 @@
         <v>172934</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>159935</v>
+        <v>160001</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>184891</v>
@@ -844,10 +844,10 @@
         <v>0.7922923948752553</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7327344101032272</v>
+        <v>0.7330361110293864</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8470728274013919</v>
+        <v>0.8470710083515955</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>358</v>
@@ -856,19 +856,19 @@
         <v>386132</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>365422</v>
+        <v>365731</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>403708</v>
+        <v>403530</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.784078233720098</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.742025367644334</v>
+        <v>0.7426521469453244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8197688788442273</v>
+        <v>0.8194065771560166</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>90227</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75245</v>
+        <v>74246</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108421</v>
+        <v>107963</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2411428956727676</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2011029395443396</v>
+        <v>0.198432822739698</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2897696445907143</v>
+        <v>0.2885446577446729</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -981,19 +981,19 @@
         <v>63497</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49912</v>
+        <v>50480</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79956</v>
+        <v>78773</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2519323912250866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1980305242353108</v>
+        <v>0.2002859251027719</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3172352573931613</v>
+        <v>0.3125430084494873</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>146</v>
@@ -1002,19 +1002,19 @@
         <v>153724</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>132099</v>
+        <v>132320</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>178057</v>
+        <v>176275</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2454855498038795</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2109525860323425</v>
+        <v>0.2113055237078124</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2843426876679789</v>
+        <v>0.2814983341890877</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>283937</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>265743</v>
+        <v>266201</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>298919</v>
+        <v>299918</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7588571043272323</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7102303554092858</v>
+        <v>0.7114553422553271</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7988970604556606</v>
+        <v>0.8015671772603018</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>173</v>
@@ -1052,19 +1052,19 @@
         <v>188543</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>172084</v>
+        <v>173267</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>202128</v>
+        <v>201560</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7480676087749133</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6827647426068387</v>
+        <v>0.6874569915505127</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8019694757646892</v>
+        <v>0.7997140748972279</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>445</v>
@@ -1073,19 +1073,19 @@
         <v>472480</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>448147</v>
+        <v>449929</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>494105</v>
+        <v>493884</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7545144501961205</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7156573123320208</v>
+        <v>0.7185016658109123</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7890474139676574</v>
+        <v>0.7886944762921876</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>89749</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74085</v>
+        <v>73220</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111126</v>
+        <v>110271</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1996559121013274</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1648093437257556</v>
+        <v>0.1628848855087293</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2472127730382023</v>
+        <v>0.2453105922432743</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -1198,19 +1198,19 @@
         <v>65758</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51816</v>
+        <v>52325</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79721</v>
+        <v>80801</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2388260852682018</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1881901309058381</v>
+        <v>0.1900380677216088</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2895383884960719</v>
+        <v>0.2934582286068928</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>144</v>
@@ -1219,19 +1219,19 @@
         <v>155507</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>133420</v>
+        <v>132375</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180116</v>
+        <v>177890</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2145348775448339</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1840636331504676</v>
+        <v>0.182622577935164</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2484853411278996</v>
+        <v>0.2454139464028375</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>359768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>338391</v>
+        <v>339246</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>375432</v>
+        <v>376297</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8003440878986726</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7527872269617977</v>
+        <v>0.7546894077567257</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8351906562742444</v>
+        <v>0.8371151144912706</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>198</v>
@@ -1269,19 +1269,19 @@
         <v>209582</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>195619</v>
+        <v>194539</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>223524</v>
+        <v>223015</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7611739147317983</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7104616115039279</v>
+        <v>0.7065417713931071</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.811809869094162</v>
+        <v>0.8099619322783912</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>541</v>
@@ -1290,19 +1290,19 @@
         <v>569350</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>544741</v>
+        <v>546967</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>591437</v>
+        <v>592482</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7854651224551661</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7515146588721004</v>
+        <v>0.7545860535971625</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8159363668495324</v>
+        <v>0.8173774220648361</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>69641</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55432</v>
+        <v>53882</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86625</v>
+        <v>86953</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2420582589988594</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1926716049798144</v>
+        <v>0.1872824884072661</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3010917101384285</v>
+        <v>0.3022306912266655</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1415,19 +1415,19 @@
         <v>43532</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31719</v>
+        <v>31965</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57229</v>
+        <v>56922</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2440976602979179</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1778558777609552</v>
+        <v>0.1792364642962907</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3209007993624043</v>
+        <v>0.3191786617100321</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -1436,19 +1436,19 @@
         <v>113174</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94759</v>
+        <v>92680</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>135512</v>
+        <v>134086</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2428386735910883</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2033264647359255</v>
+        <v>0.1988658875761472</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2907707388458213</v>
+        <v>0.2877113307328805</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>218062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>201078</v>
+        <v>200750</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>232271</v>
+        <v>233821</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7579417410011406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6989082898615715</v>
+        <v>0.6977693087733344</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8073283950201858</v>
+        <v>0.812717511592734</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>122</v>
@@ -1486,19 +1486,19 @@
         <v>134808</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>121111</v>
+        <v>121418</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>146621</v>
+        <v>146375</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7559023397020821</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6790992006375959</v>
+        <v>0.6808213382899678</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8221441222390449</v>
+        <v>0.8207635357037091</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>323</v>
@@ -1507,19 +1507,19 @@
         <v>352870</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>330532</v>
+        <v>331958</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>371285</v>
+        <v>373364</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7571613264089117</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7092292611541791</v>
+        <v>0.7122886692671195</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7966735352640747</v>
+        <v>0.8011341124238528</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>310614</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>276336</v>
+        <v>277127</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>342527</v>
+        <v>344239</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.224176464367286</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1994374324853402</v>
+        <v>0.2000078793844383</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2472089074109037</v>
+        <v>0.2484442082667467</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>201</v>
@@ -1632,19 +1632,19 @@
         <v>218125</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>192355</v>
+        <v>193277</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>246382</v>
+        <v>246110</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2360675992376001</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2081785427061892</v>
+        <v>0.2091756612190476</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2666491342984649</v>
+        <v>0.2663547161501861</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>487</v>
@@ -1653,19 +1653,19 @@
         <v>528739</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>489523</v>
+        <v>486705</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>576327</v>
+        <v>565751</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2289337607320833</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2119538726402603</v>
+        <v>0.2107340799548676</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2495387524725075</v>
+        <v>0.244959216675018</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>1074965</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1043052</v>
+        <v>1041340</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1109243</v>
+        <v>1108452</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.775823535632714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7527910925890963</v>
+        <v>0.7515557917332533</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8005625675146598</v>
+        <v>0.7999921206155617</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>651</v>
@@ -1703,19 +1703,19 @@
         <v>705867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>677610</v>
+        <v>677882</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>731637</v>
+        <v>730715</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7639324007624</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.733350865701535</v>
+        <v>0.7336452838498139</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7918214572938108</v>
+        <v>0.7908243387809524</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1667</v>
@@ -1724,19 +1724,19 @@
         <v>1780832</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1733244</v>
+        <v>1743820</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1820048</v>
+        <v>1822866</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7710662392679166</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7504612475274923</v>
+        <v>0.755040783324982</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7880461273597396</v>
+        <v>0.7892659200451324</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>56557</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44356</v>
+        <v>45579</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72610</v>
+        <v>73246</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1926469552057141</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1510873863590632</v>
+        <v>0.1552539130114428</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2473273389959735</v>
+        <v>0.249493430063318</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -2089,19 +2089,19 @@
         <v>66837</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53950</v>
+        <v>53487</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82453</v>
+        <v>82999</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2410884594077219</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1946015223170195</v>
+        <v>0.1929338671307922</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2974177335071436</v>
+        <v>0.2993866105534755</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>116</v>
@@ -2110,19 +2110,19 @@
         <v>123394</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102806</v>
+        <v>102435</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>145226</v>
+        <v>144348</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2161740536580913</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1801063221601272</v>
+        <v>0.1794549620681803</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.254421351250945</v>
+        <v>0.2528825022331014</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>237021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>220968</v>
+        <v>220332</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>249222</v>
+        <v>247999</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8073530447942859</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7526726610040265</v>
+        <v>0.7505065699366822</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8489126136409367</v>
+        <v>0.8447460869885571</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>206</v>
@@ -2160,19 +2160,19 @@
         <v>210394</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>194778</v>
+        <v>194232</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>223281</v>
+        <v>223744</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7589115405922782</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7025822664928563</v>
+        <v>0.7006133894465244</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8053984776829805</v>
+        <v>0.8070661328692078</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>423</v>
@@ -2181,19 +2181,19 @@
         <v>447415</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>425583</v>
+        <v>426461</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>468003</v>
+        <v>468374</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7838259463419087</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7455786487490552</v>
+        <v>0.7471174977668987</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8198936778398728</v>
+        <v>0.8205450379318198</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>64914</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50463</v>
+        <v>51167</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78973</v>
+        <v>79732</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1662437120622696</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1292364238911121</v>
+        <v>0.1310386588597141</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2022485737478581</v>
+        <v>0.2041936921915726</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -2306,19 +2306,19 @@
         <v>59002</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45756</v>
+        <v>46123</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73592</v>
+        <v>73103</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2184836117548123</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1694316669148026</v>
+        <v>0.1707914962407798</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2725091564128679</v>
+        <v>0.270697516694734</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -2327,19 +2327,19 @@
         <v>123916</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104568</v>
+        <v>107170</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>145343</v>
+        <v>147566</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1876016962550194</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1583092525328332</v>
+        <v>0.1622499646415465</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.220040673601917</v>
+        <v>0.2234069509950184</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>325560</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>311501</v>
+        <v>310742</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>340011</v>
+        <v>339307</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8337562879377304</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7977514262521419</v>
+        <v>0.795806307808427</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8707635761088879</v>
+        <v>0.8689613411402858</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>205</v>
@@ -2377,19 +2377,19 @@
         <v>211051</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>196461</v>
+        <v>196950</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>224297</v>
+        <v>223930</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7815163882451877</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.727490843587132</v>
+        <v>0.7293024833052659</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8305683330851974</v>
+        <v>0.8292085037592202</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>513</v>
@@ -2398,19 +2398,19 @@
         <v>536611</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>515184</v>
+        <v>512961</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>555959</v>
+        <v>553357</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8123983037449807</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7799593263980827</v>
+        <v>0.7765930490049818</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8416907474671661</v>
+        <v>0.8377500353584537</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>115618</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98064</v>
+        <v>96167</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134029</v>
+        <v>135256</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2534442299636283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2149635905748591</v>
+        <v>0.2108046465636692</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2938018099581112</v>
+        <v>0.296490815629743</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -2523,19 +2523,19 @@
         <v>49608</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38078</v>
+        <v>37812</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62496</v>
+        <v>61552</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1706870866613711</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1310175535606852</v>
+        <v>0.1300998557283259</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2150335998108626</v>
+        <v>0.2117859353429128</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>160</v>
@@ -2544,19 +2544,19 @@
         <v>165226</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143092</v>
+        <v>144039</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>187413</v>
+        <v>190443</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2212383183858022</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1916000953119784</v>
+        <v>0.1928690536566529</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2509465053191227</v>
+        <v>0.2550037789656369</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>340570</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>322159</v>
+        <v>320932</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>358124</v>
+        <v>360021</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7465557700363717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7061981900418887</v>
+        <v>0.703509184370257</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7850364094251409</v>
+        <v>0.7891953534363306</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>240</v>
@@ -2594,19 +2594,19 @@
         <v>241027</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>228139</v>
+        <v>229083</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>252557</v>
+        <v>252823</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.829312913338629</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7849664001891373</v>
+        <v>0.788214064657087</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8689824464393144</v>
+        <v>0.8699001442716739</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>558</v>
@@ -2615,19 +2615,19 @@
         <v>581598</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>559411</v>
+        <v>556381</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>603732</v>
+        <v>602785</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7787616816141978</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7490534946808772</v>
+        <v>0.7449962210343629</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8083999046880215</v>
+        <v>0.8071309463433471</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>80662</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64913</v>
+        <v>64073</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99230</v>
+        <v>96885</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2931566957596031</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2359190972841261</v>
+        <v>0.2328671058645442</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3606408380849424</v>
+        <v>0.3521190988937032</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -2740,19 +2740,19 @@
         <v>62130</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48565</v>
+        <v>49412</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74495</v>
+        <v>75459</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3201512579095461</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.250254664051146</v>
+        <v>0.2546170851534549</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3838696711211548</v>
+        <v>0.38883947800587</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -2761,19 +2761,19 @@
         <v>142791</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119930</v>
+        <v>122161</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>163520</v>
+        <v>163862</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3043214621792023</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2555979496526453</v>
+        <v>0.2603530881623575</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3485001871756391</v>
+        <v>0.3492276259766441</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>194487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>175919</v>
+        <v>178264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>210236</v>
+        <v>211076</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7068433042403969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6393591619150575</v>
+        <v>0.6478809011062967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7640809027158739</v>
+        <v>0.7671328941354558</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>124</v>
@@ -2811,19 +2811,19 @@
         <v>131933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>119568</v>
+        <v>118604</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>145498</v>
+        <v>144651</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6798487420904539</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6161303288788454</v>
+        <v>0.6111605219941302</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7497453359488542</v>
+        <v>0.7453829148465452</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>299</v>
@@ -2832,19 +2832,19 @@
         <v>326421</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>305692</v>
+        <v>305350</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>349282</v>
+        <v>347051</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6956785378207977</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6514998128243611</v>
+        <v>0.650772374023356</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7444020503473547</v>
+        <v>0.7396469118376425</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>317751</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>289807</v>
+        <v>288091</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>352778</v>
+        <v>351592</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2244971270210369</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2047543730839085</v>
+        <v>0.2035416589069008</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.249244357964439</v>
+        <v>0.2484065610848259</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>233</v>
@@ -2957,19 +2957,19 @@
         <v>237576</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>211626</v>
+        <v>211352</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>267271</v>
+        <v>266654</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2302138012550605</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.205067052927574</v>
+        <v>0.2048017500023826</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2589877714230741</v>
+        <v>0.2583904854691314</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>531</v>
@@ -2978,19 +2978,19 @@
         <v>555327</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>514644</v>
+        <v>513160</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>597148</v>
+        <v>599691</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2269076732542066</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2102843382770123</v>
+        <v>0.2096777759927553</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2439955193499861</v>
+        <v>0.2450345776228723</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>1097639</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1062612</v>
+        <v>1063798</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1125583</v>
+        <v>1127299</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.775502872978963</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.750755642035561</v>
+        <v>0.7515934389151743</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7952456269160916</v>
+        <v>0.7964583410930993</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>775</v>
@@ -3028,19 +3028,19 @@
         <v>794406</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>764711</v>
+        <v>765328</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>820356</v>
+        <v>820630</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7697861987449395</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7410122285769259</v>
+        <v>0.7416095145308691</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.794932947072426</v>
+        <v>0.7951982499976175</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1793</v>
@@ -3049,19 +3049,19 @@
         <v>1892045</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1850224</v>
+        <v>1847681</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1932728</v>
+        <v>1934212</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7730923267457934</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7560044806500139</v>
+        <v>0.7549654223771276</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7897156617229876</v>
+        <v>0.7903222240072443</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>12838</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6204</v>
+        <v>5391</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22660</v>
+        <v>22183</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3491461510654256</v>
+        <v>0.3491461510654255</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1687252825771278</v>
+        <v>0.1466217138977401</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6162507143275275</v>
+        <v>0.6032865845450259</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -3414,19 +3414,19 @@
         <v>10618</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5825</v>
+        <v>5608</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17283</v>
+        <v>16721</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2740592266860531</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1503605173259829</v>
+        <v>0.1447397687239859</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4460918295510788</v>
+        <v>0.4315913827862715</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -3435,19 +3435,19 @@
         <v>23456</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14938</v>
+        <v>14916</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35761</v>
+        <v>35232</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3106218349927317</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.197824986405377</v>
+        <v>0.1975286192863306</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4735774241338294</v>
+        <v>0.4665627514897569</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>23932</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14110</v>
+        <v>14587</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30566</v>
+        <v>31379</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6508538489345745</v>
+        <v>0.6508538489345744</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3837492856724726</v>
+        <v>0.3967134154549741</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8312747174228723</v>
+        <v>0.85337828610226</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -3485,19 +3485,19 @@
         <v>28125</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21460</v>
+        <v>22022</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32918</v>
+        <v>33135</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7259407733139469</v>
+        <v>0.7259407733139468</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5539081704489212</v>
+        <v>0.5684086172137284</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.849639482674017</v>
+        <v>0.8552602312760145</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -3506,19 +3506,19 @@
         <v>52057</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39752</v>
+        <v>40281</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60575</v>
+        <v>60597</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6893781650072682</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5264225758661705</v>
+        <v>0.5334372485102425</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.802175013594623</v>
+        <v>0.8024713807136694</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>21122</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12866</v>
+        <v>13074</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32582</v>
+        <v>33134</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1807730388202143</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1101136274705833</v>
+        <v>0.111893716144247</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2788575329814279</v>
+        <v>0.2835759372841384</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -3631,19 +3631,19 @@
         <v>14648</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8633</v>
+        <v>8552</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22560</v>
+        <v>21659</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1547718368663487</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09122093855318315</v>
+        <v>0.09035743154784921</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2383685224840321</v>
+        <v>0.228852637463718</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -3652,19 +3652,19 @@
         <v>35770</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25636</v>
+        <v>24846</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49787</v>
+        <v>48789</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1691371477766289</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.12122219622454</v>
+        <v>0.1174859405860312</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.235418553614775</v>
+        <v>0.2306986240377309</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>95720</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>84260</v>
+        <v>83708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>103976</v>
+        <v>103768</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8192269611797858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7211424670185722</v>
+        <v>0.7164240627158617</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8898863725294169</v>
+        <v>0.8881062838557532</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>99</v>
@@ -3702,19 +3702,19 @@
         <v>79994</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72082</v>
+        <v>72983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86009</v>
+        <v>86090</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8452281631336513</v>
+        <v>0.8452281631336512</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7616314775159677</v>
+        <v>0.7711473625362821</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9087790614468164</v>
+        <v>0.9096425684521507</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>174</v>
@@ -3723,19 +3723,19 @@
         <v>175713</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>161696</v>
+        <v>162694</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>185847</v>
+        <v>186637</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8308628522233711</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7645814463852254</v>
+        <v>0.7693013759622689</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8787778037754602</v>
+        <v>0.8825140594139687</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>35612</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24152</v>
+        <v>25489</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45719</v>
+        <v>46343</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3035341980314947</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2058570854099689</v>
+        <v>0.2172510234443582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3896769185143478</v>
+        <v>0.3950010168572564</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -3848,19 +3848,19 @@
         <v>35561</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27036</v>
+        <v>26898</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45963</v>
+        <v>45199</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2965607116574494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2254688861904246</v>
+        <v>0.2243193886041166</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3833063417295562</v>
+        <v>0.3769359509869634</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -3869,19 +3869,19 @@
         <v>71173</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56984</v>
+        <v>57065</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87143</v>
+        <v>86066</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3000094423053829</v>
+        <v>0.300009442305383</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2402003873263968</v>
+        <v>0.2405414251907149</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.367324480863243</v>
+        <v>0.3627844412264859</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>81713</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>71606</v>
+        <v>70982</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93173</v>
+        <v>91836</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6964658019685052</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6103230814856528</v>
+        <v>0.604998983142744</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7941429145900314</v>
+        <v>0.7827489765556419</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>113</v>
@@ -3919,19 +3919,19 @@
         <v>84350</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>73948</v>
+        <v>74712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>92875</v>
+        <v>93013</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7034392883425505</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.616693658270444</v>
+        <v>0.6230640490130366</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7745311138095754</v>
+        <v>0.7756806113958833</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>183</v>
@@ -3940,19 +3940,19 @@
         <v>166063</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>150093</v>
+        <v>151170</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>180252</v>
+        <v>180171</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6999905576946172</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.632675519136757</v>
+        <v>0.6372155587735142</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7597996126736033</v>
+        <v>0.7594585748092852</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>83954</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68361</v>
+        <v>67537</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98889</v>
+        <v>100291</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4185870725680017</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3408413812965514</v>
+        <v>0.33673330854577</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4930538204285634</v>
+        <v>0.5000436007347731</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -4065,19 +4065,19 @@
         <v>52819</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43036</v>
+        <v>42565</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63745</v>
+        <v>62836</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4116177339793087</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3353782626527219</v>
+        <v>0.3317059840215252</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4967617486446952</v>
+        <v>0.4896810991467587</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -4086,19 +4086,19 @@
         <v>136773</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119573</v>
+        <v>119552</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>156537</v>
+        <v>157653</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4158678578992303</v>
+        <v>0.4158678578992302</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3635693635399925</v>
+        <v>0.3635055249839288</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4759597963270039</v>
+        <v>0.479355361977741</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>116611</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101676</v>
+        <v>100274</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>132204</v>
+        <v>133028</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5814129274319983</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5069461795714365</v>
+        <v>0.4999563992652268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6591586187034485</v>
+        <v>0.66326669145423</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>101</v>
@@ -4136,19 +4136,19 @@
         <v>75502</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64576</v>
+        <v>65485</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>85285</v>
+        <v>85756</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5883822660206913</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5032382513553048</v>
+        <v>0.5103189008532413</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6646217373472783</v>
+        <v>0.6682940159784749</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>199</v>
@@ -4157,19 +4157,19 @@
         <v>192113</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>172349</v>
+        <v>171233</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>209313</v>
+        <v>209334</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5841321421007698</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5240402036729962</v>
+        <v>0.5206446380222591</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6364306364600074</v>
+        <v>0.6364944750160714</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>153526</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>128491</v>
+        <v>131738</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>177457</v>
+        <v>179531</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3256107433414128</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2725145020372557</v>
+        <v>0.2793997009022144</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3763650563047719</v>
+        <v>0.3807644583613475</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -4282,19 +4282,19 @@
         <v>113646</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96966</v>
+        <v>98766</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>130370</v>
+        <v>131069</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.297800969982649</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2540913484151383</v>
+        <v>0.258809707660189</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3416253848432236</v>
+        <v>0.3434576366427008</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>266</v>
@@ -4303,19 +4303,19 @@
         <v>267172</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>240070</v>
+        <v>242147</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>296886</v>
+        <v>300140</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3131708826996149</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2814033247566074</v>
+        <v>0.283837930302817</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3480006335338797</v>
+        <v>0.3518154223893687</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>317976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>294045</v>
+        <v>291971</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>343011</v>
+        <v>339764</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6743892566585872</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6236349436952282</v>
+        <v>0.6192355416386527</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7274854979627442</v>
+        <v>0.7206002990977856</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>348</v>
@@ -4353,19 +4353,19 @@
         <v>267971</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>251247</v>
+        <v>250548</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>284651</v>
+        <v>282851</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.702199030017351</v>
+        <v>0.7021990300173511</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6583746151567764</v>
+        <v>0.6565423633572991</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7459086515848617</v>
+        <v>0.7411902923398105</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>610</v>
@@ -4374,19 +4374,19 @@
         <v>585946</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>556232</v>
+        <v>552978</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>613048</v>
+        <v>610971</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6868291173003851</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6519993664661203</v>
+        <v>0.6481845776106314</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7185966752433927</v>
+        <v>0.716162069697183</v>
       </c>
     </row>
     <row r="18">
